--- a/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9-马丁组.xlsx
+++ b/VersionRecords/Version 5.3.9 20170418/版本Bug和特性计划及评审表v5.3.9-马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-19300" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="-8660" yWindow="-19300" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -299,6 +299,40 @@
   </si>
   <si>
     <t>KA-1</t>
+  </si>
+  <si>
+    <t>H5宣传页面优化</t>
+    <rPh sb="2" eb="3">
+      <t>xuan'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ye'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you'hua</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed、renterembed-fe</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨菲</t>
+    <rPh sb="0" eb="1">
+      <t>mo'fei</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷锋</t>
+    <rPh sb="0" eb="1">
+      <t>leng'feng</t>
+    </rPh>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-3239</t>
   </si>
 </sst>
 </file>
@@ -983,6 +1017,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,9 +1045,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1390,7 +1424,7 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1543,7 +1577,7 @@
       <c r="R2" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="89" t="s">
+      <c r="S2" s="80" t="s">
         <v>80</v>
       </c>
       <c r="T2" s="68"/>
@@ -1552,26 +1586,62 @@
       <c r="W2" s="72"/>
       <c r="X2" s="73"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="59">
+        <v>42839</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="59">
+        <v>42839</v>
+      </c>
       <c r="K3" s="58"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="68"/>
+      <c r="L3" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="59">
+        <v>42842</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="80" t="s">
+        <v>85</v>
+      </c>
       <c r="T3" s="68"/>
       <c r="U3" s="56"/>
       <c r="V3" s="67"/>
@@ -5657,6 +5727,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5834,19 +5905,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5884,8 +5955,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5897,8 +5968,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5910,8 +5981,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5923,8 +5994,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5936,8 +6007,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5949,8 +6020,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5962,8 +6033,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5975,8 +6046,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6037,36 +6108,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6351,36 +6422,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6665,36 +6736,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6981,36 +7052,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="88"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
